--- a/docs/Risikolog Delfinen Jazz.xlsx
+++ b/docs/Risikolog Delfinen Jazz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joachimelgaard/Documents/Datamatiker/datamatikerNoter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joachimelgaard/Documents/Datamatiker/Første semester/Projekter/Svømmeklubben Delfinen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A79CC-B882-7748-BCF9-068377A86FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E60817-CCF0-5B49-AF4C-AC5866F5DED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="173">
   <si>
     <t xml:space="preserve">Risikoanalyse for Delfin projektet </t>
   </si>
@@ -806,6 +806,33 @@
   </si>
   <si>
     <t>Scrum master: Joachim Leth Elgaard</t>
+  </si>
+  <si>
+    <t>Joachim &amp; Zacharias</t>
+  </si>
+  <si>
+    <t>En udvikler bliver langtidssygemeldt</t>
+  </si>
+  <si>
+    <t>SCRUM-master bliver langtidssygemeldt</t>
+  </si>
+  <si>
+    <t>En udvikler bliver hevet over på et andet projekt</t>
+  </si>
+  <si>
+    <t>En udvikler får nyt arbejde</t>
+  </si>
+  <si>
+    <t>Forsinkelser, Fordyrelser, Teamet mangler specifikke evner, Teamet taber ressourcer</t>
+  </si>
+  <si>
+    <t>Teamet skal have ny SCRUM-master (med risiko for manglende erfaring)</t>
+  </si>
+  <si>
+    <t>Løbende kontakt tilfælde af sygdom</t>
+  </si>
+  <si>
+    <t>Afsætte tid til at teamet kan have det sjovt sammen</t>
   </si>
 </sst>
 </file>
@@ -821,7 +848,7 @@
     <numFmt numFmtId="169" formatCode="0_)%;\(0\)%"/>
     <numFmt numFmtId="170" formatCode="[$-406]mmmm\ yy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -983,6 +1010,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1028,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1278,6 +1311,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1313,7 +1361,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1525,6 +1573,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -2419,8 +2471,8 @@
   </sheetPr>
   <dimension ref="B1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="133" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="133" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -2641,72 +2693,128 @@
       </c>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:11" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" s="32" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B14" s="38">
         <v>2</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41" t="str">
+      <c r="C14" s="39">
+        <v>45413</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="40">
+        <v>2</v>
+      </c>
+      <c r="H14" s="40">
+        <v>5</v>
+      </c>
+      <c r="I14" s="41">
         <f>IF(Risikolog[[#This Row],[Sand-synlig-hed]]*Risikolog[[#This Row],[Konse-kvens]]=0,"",Risikolog[[#This Row],[Sand-synlig-hed]]*Risikolog[[#This Row],[Konse-kvens]]+Risikolog[[#This Row],[Risiko-id]]/10^8)</f>
-        <v/>
-      </c>
-      <c r="J14" s="40"/>
+        <v>10.00000002</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>171</v>
+      </c>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="2:11" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" s="32" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B15" s="38">
         <v>3</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41" t="str">
+      <c r="C15" s="39">
+        <v>45413</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1</v>
+      </c>
+      <c r="H15" s="40">
+        <v>5</v>
+      </c>
+      <c r="I15" s="41">
         <f>IF(Risikolog[[#This Row],[Sand-synlig-hed]]*Risikolog[[#This Row],[Konse-kvens]]=0,"",Risikolog[[#This Row],[Sand-synlig-hed]]*Risikolog[[#This Row],[Konse-kvens]]+Risikolog[[#This Row],[Risiko-id]]/10^8)</f>
-        <v/>
-      </c>
-      <c r="J15" s="40"/>
+        <v>5.0000000299999998</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>171</v>
+      </c>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="2:11" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" s="32" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B16" s="38">
         <v>4</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41" t="str">
+      <c r="C16" s="39">
+        <v>45413</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="40">
+        <v>1</v>
+      </c>
+      <c r="H16" s="40">
+        <v>5</v>
+      </c>
+      <c r="I16" s="41">
         <f>IF(Risikolog[[#This Row],[Sand-synlig-hed]]*Risikolog[[#This Row],[Konse-kvens]]=0,"",Risikolog[[#This Row],[Sand-synlig-hed]]*Risikolog[[#This Row],[Konse-kvens]]+Risikolog[[#This Row],[Risiko-id]]/10^8)</f>
-        <v/>
-      </c>
-      <c r="J16" s="40"/>
+        <v>5.0000000399999998</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>172</v>
+      </c>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="2:11" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" s="32" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B17" s="38">
         <v>5</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41" t="str">
+      <c r="C17" s="39">
+        <v>45413</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="40">
+        <v>1</v>
+      </c>
+      <c r="H17" s="40">
+        <v>5</v>
+      </c>
+      <c r="I17" s="41">
         <f>IF(Risikolog[[#This Row],[Sand-synlig-hed]]*Risikolog[[#This Row],[Konse-kvens]]=0,"",Risikolog[[#This Row],[Sand-synlig-hed]]*Risikolog[[#This Row],[Konse-kvens]]+Risikolog[[#This Row],[Risiko-id]]/10^8)</f>
-        <v/>
-      </c>
-      <c r="J17" s="40"/>
+        <v>5.0000000499999997</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>172</v>
+      </c>
       <c r="K17" s="33"/>
     </row>
     <row r="18" spans="2:11" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -9728,7 +9836,7 @@
       </c>
       <c r="D2">
         <f>Risikoanalyse!H14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" t="str">
         <f>IFERROR(IF(VLOOKUP(C2,Risikolog[],22)="Risiko",Risikoanalyse!G14+101,0),"")</f>
@@ -9793,7 +9901,7 @@
       </c>
       <c r="D3">
         <f>Risikoanalyse!H15</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(IF(VLOOKUP(C3,Risikolog[],22)="Risiko",Risikoanalyse!G15+101,0),"")</f>
@@ -9858,7 +9966,7 @@
       </c>
       <c r="D4">
         <f>Risikoanalyse!H16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" t="str">
         <f>IFERROR(IF(VLOOKUP(C4,Risikolog[],22)="Risiko",Risikoanalyse!G16+101,0),"")</f>
@@ -9923,7 +10031,7 @@
       </c>
       <c r="D5">
         <f>Risikoanalyse!H17</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(IF(VLOOKUP(C5,Risikolog[],22)="Risiko",Risikoanalyse!G17+101,0),"")</f>
@@ -12042,6 +12150,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DDD9E799E7E8524B923206CADB8AC00F" ma:contentTypeVersion="0" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="e14a96fdbc9780443c13da838deb629b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79458e8cc01bc5f1f076b1628d37ae1a">
     <xsd:element name="properties">
@@ -12090,26 +12213,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD83A6FA-B740-40C5-B30A-FE4E0AC1447E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D19820F-2BE5-434F-8E69-38211902D5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6EC6677-8C66-499B-83A3-17590D7427CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12124,22 +12248,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D19820F-2BE5-434F-8E69-38211902D5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD83A6FA-B740-40C5-B30A-FE4E0AC1447E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4F81972-9309-4B52-A133-241CA2AF532A}">
   <ds:schemaRefs>
